--- a/Docs/Projeção Financeira.xlsx
+++ b/Docs/Projeção Financeira.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,8 +141,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -426,7 +427,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +464,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -489,7 +490,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -513,7 +514,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -535,12 +536,12 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -562,7 +563,7 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -665,7 +666,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
